--- a/data/trans_camb/P17G_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.54807692348366</v>
+        <v>-15.60048507789181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.250759565377394</v>
+        <v>-7.404208557647508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-39.61500187177953</v>
+        <v>-44.98916540497472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.277549505360003</v>
+        <v>-2.645808771549626</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.86889519919482</v>
+        <v>-1.844694262248967</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.38131751186872</v>
+        <v>-12.49047654801857</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.088949467465979</v>
+        <v>-4.960316749660891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.890910602809431</v>
+        <v>-2.112226766703441</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-13.5217424803226</v>
+        <v>-14.19180976313197</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.31294657934611</v>
+        <v>10.22138215498741</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.2204215484001</v>
+        <v>14.30772843176304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.19728100984919</v>
+        <v>9.764909444144255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.39130011954536</v>
+        <v>11.09032758403765</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.97950309994773</v>
+        <v>10.88457736989275</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.658291967078773</v>
+        <v>7.639037572179575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.629503465345603</v>
+        <v>7.843480246540296</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.789669478688461</v>
+        <v>9.390116535755439</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.082488470729234</v>
+        <v>5.836111376892618</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.147729171863952</v>
+        <v>-0.1637044302115076</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07490566776916735</v>
+        <v>-0.07845539314340122</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4348701442007631</v>
+        <v>-0.489274616707724</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03334527446005112</v>
+        <v>-0.02756747767768651</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01941044645173114</v>
+        <v>-0.01899135419516437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1302241209651388</v>
+        <v>-0.1324967284350494</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05322667388435326</v>
+        <v>-0.05192974701325227</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02940318728529167</v>
+        <v>-0.02225043766799255</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1474753665820754</v>
+        <v>-0.1552022912452415</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1478731722525482</v>
+        <v>0.1175725350846608</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1754303633799033</v>
+        <v>0.1770054701918305</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1124892051113795</v>
+        <v>0.1083908484391969</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1194708567627529</v>
+        <v>0.1276108546333821</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1271919236661829</v>
+        <v>0.1254942346207225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08588653282142628</v>
+        <v>0.08432001402996146</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0867936401874994</v>
+        <v>0.08918592096482489</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1000866545356021</v>
+        <v>0.1073253282030264</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.06878784543240696</v>
+        <v>0.06445834403747051</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.7062305055367868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.900016420957865</v>
+        <v>5.900016420957854</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.81480873579091</v>
@@ -869,7 +869,7 @@
         <v>1.374452775563606</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.818809036074343</v>
+        <v>-2.818809036074355</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.596353677230394</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.396667860646216</v>
+        <v>2.256081078715889</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.17765667280842</v>
+        <v>-12.22024060466885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.252680258175799</v>
+        <v>-8.33677912171326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1798389655114196</v>
+        <v>-0.877267680205542</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.862725999151979</v>
+        <v>-5.402984962246416</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.71749218335941</v>
+        <v>-10.88783117680485</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.368860881233479</v>
+        <v>2.567041662840811</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.628290988478178</v>
+        <v>-5.367958792845505</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.656142274690843</v>
+        <v>-7.260496799163383</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.57279259066978</v>
+        <v>22.96237600267631</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.27253553886768</v>
+        <v>12.76486196549456</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.73927063904616</v>
+        <v>19.24122046661185</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.99226502419439</v>
+        <v>12.7393409459183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.677757622431287</v>
+        <v>8.667866300434444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.489648498870961</v>
+        <v>6.005364871201738</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.46131787102995</v>
+        <v>13.14660023061208</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.216742357189244</v>
+        <v>7.275522633055285</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.465323182233075</v>
+        <v>7.365323030392855</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.008607599615582467</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.07190991988991875</v>
+        <v>0.07190991988991863</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06513884366654261</v>
@@ -974,7 +974,7 @@
         <v>0.01539694056029957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03157695626281159</v>
+        <v>-0.03157695626281171</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.08740128114417108</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02687408715895231</v>
+        <v>0.02910748222848959</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1301575846651133</v>
+        <v>-0.1379748017126546</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08077548128060487</v>
+        <v>-0.0921489322579556</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.00298974406323669</v>
+        <v>-0.007863238616206639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06345657976013779</v>
+        <v>-0.05863193090642704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1301791804474687</v>
+        <v>-0.121566907973134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0259699534515644</v>
+        <v>0.02849623799332245</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06249858605966801</v>
+        <v>-0.06019341652778209</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.0875746303893766</v>
+        <v>-0.08157113295256962</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3070679664701272</v>
+        <v>0.3257490484111756</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1762904264659234</v>
+        <v>0.1745154500550857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2549189270287677</v>
+        <v>0.2616499991642481</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1545581560709856</v>
+        <v>0.1541433466580034</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1029636060835641</v>
+        <v>0.1034307910129856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06465247389384227</v>
+        <v>0.07096451805760216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1633856503545543</v>
+        <v>0.1592555194319562</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08672385632563424</v>
+        <v>0.08732815586550989</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09093470885144721</v>
+        <v>0.08659199314454476</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.729982570768097</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.489130914508944</v>
+        <v>-5.489130914508933</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.274018609318194</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.79085910983772</v>
+        <v>-4.552953112681942</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.904771459261823</v>
+        <v>-4.412650120383756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.42586512966953</v>
+        <v>-18.44134937625024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.14036682893463</v>
+        <v>-5.933563512493317</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.62293020423326</v>
+        <v>-8.092970331181943</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.07446562466139</v>
+        <v>-12.0043575715736</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.777214696310307</v>
+        <v>-3.903564681035753</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.88064188257431</v>
+        <v>-4.911694229447612</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-11.32666009707886</v>
+        <v>-11.2934815807618</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.60559853903608</v>
+        <v>11.18122668294262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.48864269416829</v>
+        <v>11.5459714165616</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.971237655057581</v>
+        <v>4.446061217830072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.925232987020807</v>
+        <v>5.262483495330039</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.028894939642667</v>
+        <v>3.341557904507433</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.032444377792215</v>
+        <v>0.1116842930455628</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.149317150826404</v>
+        <v>5.353662033282893</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.293531403957826</v>
+        <v>4.403824802342417</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.605902559702813</v>
+        <v>-0.1763447737543392</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.03062301637867161</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06157319379969005</v>
+        <v>-0.06157319379968992</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.002931862820016339</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05131508201912573</v>
+        <v>-0.04851768244230994</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04225291820262491</v>
+        <v>-0.04724393815038917</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1766777006201395</v>
+        <v>-0.200299559361892</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0641854697970982</v>
+        <v>-0.0618959948502026</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07875305135227274</v>
+        <v>-0.08555888174645192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1164491402733431</v>
+        <v>-0.1261221119867296</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03992541042311804</v>
+        <v>-0.04156090206769778</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05195377913304722</v>
+        <v>-0.05191941870500169</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1231099152574732</v>
+        <v>-0.1215648367052774</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1454970762621853</v>
+        <v>0.1353947456414677</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1521185062795634</v>
+        <v>0.1413185108038732</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0591766106261934</v>
+        <v>0.05291291841343965</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06613750178710866</v>
+        <v>0.05830136791109512</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04408051800152662</v>
+        <v>0.0359585290458985</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01117232369820341</v>
+        <v>0.001236005754101024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05707705121838802</v>
+        <v>0.05985925833121036</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04836686828648895</v>
+        <v>0.04903066801047522</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.007090377541284952</v>
+        <v>-0.002040652454577194</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.023062523320896</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.347919202546112</v>
+        <v>3.347919202546146</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.014628799750743</v>
@@ -1297,7 +1297,7 @@
         <v>0.5453351398142958</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-6.199107224201883</v>
+        <v>-6.199107224201905</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.364711159685664</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.647846069582484</v>
+        <v>-5.404054288666106</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.480278514243641</v>
+        <v>-6.901809208017502</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.486350877988599</v>
+        <v>-6.151365824274381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.814838790623339</v>
+        <v>2.151445668597054</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.003677727268885</v>
+        <v>-4.64507829292765</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.51165286195267</v>
+        <v>-11.95847163370227</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2104789525247445</v>
+        <v>0.6284198406548712</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.574709042670479</v>
+        <v>-4.198982161558349</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.761256755237075</v>
+        <v>-7.610875527427899</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.8373882566142</v>
+        <v>14.85424262499783</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.63225046489659</v>
+        <v>12.26165230969051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.05911709043568</v>
+        <v>12.6470870614498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.49108911511287</v>
+        <v>11.95576360308991</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.567382452189069</v>
+        <v>7.013957474557118</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4621955351583151</v>
+        <v>0.07153185766579251</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.16544592804055</v>
+        <v>10.1974286217621</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.771172834115024</v>
+        <v>6.204299391588995</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.382233151702843</v>
+        <v>2.369374342542002</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.03572120839896849</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.03955979031676927</v>
+        <v>0.03955979031676966</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06512754642495439</v>
@@ -1402,7 +1402,7 @@
         <v>0.005904992779751662</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.06712511394788148</v>
+        <v>-0.06712511394788173</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05984536714831584</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07056675162365507</v>
+        <v>-0.05952752997549861</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07183267290188176</v>
+        <v>-0.07485865235247909</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06003824745900077</v>
+        <v>-0.06748948814852926</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01925249740549904</v>
+        <v>0.02284239144472373</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0523126072655089</v>
+        <v>-0.04962812796251158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1219334852031094</v>
+        <v>-0.1262611877833189</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.002367084008389588</v>
+        <v>0.006736404429043982</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04984195936511323</v>
+        <v>-0.04515482822079101</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08472561376245627</v>
+        <v>-0.08166144627275786</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1886747267596511</v>
+        <v>0.1899158344801447</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1617636020149163</v>
+        <v>0.1561291636310158</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1697758251176811</v>
+        <v>0.1642256782491515</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1324365040263272</v>
+        <v>0.1407868711373449</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07477821760690136</v>
+        <v>0.07986857202275204</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003735079734848403</v>
+        <v>0.0002805962633167146</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1185494219657968</v>
+        <v>0.1188327698633621</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06625308148726788</v>
+        <v>0.07227460226408852</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.02704821244354107</v>
+        <v>0.0276049599527022</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.7897072365002145</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.546940446734058</v>
+        <v>1.54694044673408</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.199343760859597</v>
@@ -1511,7 +1511,7 @@
         <v>0.9570757176659783</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.508193030362094</v>
+        <v>-2.508193030362116</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.911674098624617</v>
@@ -1520,7 +1520,7 @@
         <v>0.9236825196116349</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.6127154936246715</v>
+        <v>-0.6127154936246937</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.759293367184656</v>
+        <v>-6.771522746246597</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.340809530449206</v>
+        <v>-5.822388410853872</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.447219238042703</v>
+        <v>-5.44288954115942</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8862614655731207</v>
+        <v>-0.706464747333077</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.930473538360458</v>
+        <v>-5.073735682206368</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.064680352690893</v>
+        <v>-7.906886213302965</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.457711969141118</v>
+        <v>-1.252870871092246</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.984561796328145</v>
+        <v>-3.195759176693072</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.111450058753757</v>
+        <v>-4.517988977550282</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.04766246125206</v>
+        <v>8.621334853358197</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.432487070440648</v>
+        <v>8.988363647147866</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.019071314732068</v>
+        <v>9.303898341367452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.335071029979893</v>
+        <v>9.428176324217143</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.186524850137618</v>
+        <v>7.416633574594276</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.430876675088995</v>
+        <v>3.786023128752233</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.318153773373136</v>
+        <v>7.316483912369938</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.456025544118082</v>
+        <v>5.190038475069994</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.714633931586986</v>
+        <v>4.029964631086017</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.008665037674664821</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.01697375512325041</v>
+        <v>0.01697375512325065</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.04532772294068058</v>
@@ -1616,7 +1616,7 @@
         <v>0.01033067675191618</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.02707343938394954</v>
+        <v>-0.02707343938394978</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.03166375070980414</v>
@@ -1625,7 +1625,7 @@
         <v>0.01004482371492128</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.006663132613409773</v>
+        <v>-0.006663132613410014</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06019764223747855</v>
+        <v>-0.07215826090102</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.06595029326200266</v>
+        <v>-0.06200224527351612</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04668356802224086</v>
+        <v>-0.05659736652403586</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.00832291808064623</v>
+        <v>-0.007275042459561842</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05146419062560234</v>
+        <v>-0.05057395164421983</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08505781635835673</v>
+        <v>-0.08407101212834923</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01537227528966842</v>
+        <v>-0.01268725866721328</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04281482677421217</v>
+        <v>-0.03406811483862425</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05425010328321947</v>
+        <v>-0.04836896087598561</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1043937654129932</v>
+        <v>0.09926723386374253</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08492925810328242</v>
+        <v>0.1030510326547708</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1044062831818711</v>
+        <v>0.1073418121068793</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1064622265749009</v>
+        <v>0.1078603540406576</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06876933692168793</v>
+        <v>0.08467512743011257</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03827722801488112</v>
+        <v>0.04190217481058304</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08187777803160602</v>
+        <v>0.08242720680255101</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06116340833339242</v>
+        <v>0.05777929117162744</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.04157056430093951</v>
+        <v>0.04538786204270259</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.14984511507279</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.694794692379132</v>
+        <v>-2.694794692379121</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.8080378415371792</v>
@@ -1734,7 +1734,7 @@
         <v>-0.4891779154841402</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.724304560224767</v>
+        <v>-3.724304560224756</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.020968424229569</v>
+        <v>-5.931883644656953</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.508688435497702</v>
+        <v>-2.852162635041084</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.39682665872479</v>
+        <v>-10.85691814938016</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.010107416138249</v>
+        <v>-5.997300636417025</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.090815022208176</v>
+        <v>-6.772151023508122</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.560990251552588</v>
+        <v>-6.53576299354908</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-4.482605344963686</v>
+        <v>-4.436852035118794</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.960745483870527</v>
+        <v>-3.899624052176017</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.268955709291222</v>
+        <v>-7.229016727394169</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.097685810343873</v>
+        <v>5.139575497204342</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.404494779551233</v>
+        <v>6.096430665492273</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.8047319568477266</v>
+        <v>0.6815648352880294</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.403108373276304</v>
+        <v>2.173217582856119</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.294801006894663</v>
+        <v>1.886633907354128</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.467819139480467</v>
+        <v>1.601867839808769</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.459076563144448</v>
+        <v>2.597142222831033</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.521453613106743</v>
+        <v>2.744935138121028</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.6155305184315683</v>
+        <v>-0.3781453882048095</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.02217439737621946</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.0277952341483534</v>
+        <v>-0.02779523414835328</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.008400430605233154</v>
@@ -1839,7 +1839,7 @@
         <v>-0.005085535505143855</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.03871818917713648</v>
+        <v>-0.03871818917713636</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06177587669292623</v>
+        <v>-0.06140795498058309</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.0257006873390172</v>
+        <v>-0.02813143292549495</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1180393156768685</v>
+        <v>-0.1137640205998839</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.06154088359332279</v>
+        <v>-0.06130573654710688</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07213134019768704</v>
+        <v>-0.06921421269794997</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.06746373040638812</v>
+        <v>-0.06693640691658227</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.04610364859597913</v>
+        <v>-0.04588066699424056</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04067671095772692</v>
+        <v>-0.03999026744345892</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.07446477453581549</v>
+        <v>-0.07455881229763503</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.0551958870364188</v>
+        <v>0.05564493471598942</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.06927219433114756</v>
+        <v>0.06761753772260004</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.008322712281304922</v>
+        <v>0.007106312911419543</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02501074205316626</v>
+        <v>0.02291777476356658</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02408268451878112</v>
+        <v>0.01967553480938863</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0154304931814726</v>
+        <v>0.01634703327329412</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02615623054039683</v>
+        <v>0.02714415199560837</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.02655884818333496</v>
+        <v>0.02883496232971743</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.006499944115530681</v>
+        <v>-0.004222455015045556</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-0.1731879467055664</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-4.662591444849706</v>
+        <v>-4.662591444849717</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.1120109564579419</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.6384210810644915</v>
+        <v>-0.6818370159419229</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.785680085378844</v>
+        <v>-7.210644908233855</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.249029229036255</v>
+        <v>-6.483834691323204</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.00348815047313</v>
+        <v>-4.952188581243065</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.883042113879407</v>
+        <v>-3.792070427648045</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.640634309326744</v>
+        <v>-8.610117511990662</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.679539558601951</v>
+        <v>-2.448728865964603</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.169929209081649</v>
+        <v>-3.894156030555858</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.445406836245249</v>
+        <v>-6.498054908104177</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.994028620088775</v>
+        <v>8.63827419534551</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.167118132529534</v>
+        <v>4.521303455035742</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.959441862234167</v>
+        <v>4.308791004446811</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.052829008278429</v>
+        <v>2.470815775058846</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.901560967686694</v>
+        <v>3.383442383173326</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.6365615450947419</v>
+        <v>-0.6049394839248182</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.826818569224914</v>
+        <v>2.997071120099599</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.262686711739215</v>
+        <v>2.333528603301606</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.06405346952399901</v>
+        <v>-0.1846649724925583</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.001769052425859829</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.04762669032809515</v>
+        <v>-0.04762669032809527</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.001150179363696878</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.006498966030192747</v>
+        <v>-0.006926145890853907</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07007358641321169</v>
+        <v>-0.07424808926837295</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.06370729472443099</v>
+        <v>-0.06573510985455366</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.05069704771071146</v>
+        <v>-0.05005132644246028</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03900887781277224</v>
+        <v>-0.03840090921108897</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08782154549462706</v>
+        <v>-0.08697310832736463</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0272147424361614</v>
+        <v>-0.02477998355749838</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.04228485637092442</v>
+        <v>-0.03948700647182211</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.06587753316470542</v>
+        <v>-0.06590657571807898</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.09990762079489561</v>
+        <v>0.09446424471146622</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.04472428022225307</v>
+        <v>0.04841894098475436</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.0533123923656176</v>
+        <v>0.04649139294056449</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02121897815944717</v>
+        <v>0.02582935392516313</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03006321065541748</v>
+        <v>0.03555846378083934</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.006686332506460371</v>
+        <v>-0.006379845074878745</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02955892191174641</v>
+        <v>0.03134568410406934</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.02368461899455529</v>
+        <v>0.02428409826889822</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.0009484931541803972</v>
+        <v>-0.001907365672309654</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>0.06591399137324538</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.91253910018301</v>
+        <v>-3.912539100182999</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.296047664741341</v>
@@ -2162,7 +2162,7 @@
         <v>0.2155396722772651</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.845622344079946</v>
+        <v>-2.845622344079934</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.3161610224008929</v>
+        <v>-0.4131762790147478</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.219507017059047</v>
+        <v>-2.286203233286324</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.893589216680058</v>
+        <v>-4.898362862582779</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.1669124596515465</v>
+        <v>0.1425292814186752</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.151391300219151</v>
+        <v>-2.2790448773381</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.126966958305463</v>
+        <v>-6.159059405508762</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.8690612352043436</v>
+        <v>0.6683008580106251</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.494925591451982</v>
+        <v>-1.440731557889648</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.992397317818502</v>
+        <v>-4.778786133400018</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.478623434701936</v>
+        <v>5.880050912045133</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.626463922621501</v>
+        <v>3.830630259207688</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.86959334597359</v>
+        <v>2.575314075004782</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.00180939939249</v>
+        <v>4.17313354172977</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.188922762968804</v>
+        <v>2.150821926969599</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.587893655022027</v>
+        <v>-1.498124788625038</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.050054184701212</v>
+        <v>4.017535529100884</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.944182535208722</v>
+        <v>1.943137921678391</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.023581148039376</v>
+        <v>-0.792602341088962</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.0007027716482500122</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.04171529435546078</v>
+        <v>-0.04171529435546066</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.02480709416610304</v>
@@ -2267,7 +2267,7 @@
         <v>0.002328746492863186</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.03074484146595908</v>
+        <v>-0.03074484146595896</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.003139644900880711</v>
+        <v>-0.004443496846032098</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02394041606934784</v>
+        <v>-0.02463985840019334</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05290832025157115</v>
+        <v>-0.05298853518009157</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.001825585616299491</v>
+        <v>0.001498013037996611</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.02267415124394357</v>
+        <v>-0.02406599035099046</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06479924502359169</v>
+        <v>-0.06492615095345128</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.009245212430339551</v>
+        <v>0.007136399431713058</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.01593641568105026</v>
+        <v>-0.01540885953441667</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.05352334904587975</v>
+        <v>-0.05115745317386894</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.06179894415625932</v>
+        <v>0.06611583573908275</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.0403602536594285</v>
+        <v>0.04301796168634511</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.0209610440914319</v>
+        <v>0.02877833042295171</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.04330020190190602</v>
+        <v>0.04509222080510147</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.02371019237758882</v>
+        <v>0.02315132669740678</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01727264339839892</v>
+        <v>-0.01597934492012059</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04415963265631254</v>
+        <v>0.04388598726591117</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02115303630181926</v>
+        <v>0.0214866346694983</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.01125936439284587</v>
+        <v>-0.008748060231073058</v>
       </c>
     </row>
     <row r="52">
